--- a/datiDiProva/fileDatiDocenti2020.xlsx
+++ b/datiDiProva/fileDatiDocenti2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="428">
   <si>
     <t xml:space="preserve">IIS M.L. Cassata</t>
   </si>
@@ -1132,6 +1132,9 @@
     <t xml:space="preserve">CASTELLETTI ALESSIA</t>
   </si>
   <si>
+    <t xml:space="preserve">classe sbagliata</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAVALLARI SIMONETTA</t>
   </si>
   <si>
@@ -1356,427 +1359,22 @@
     <t xml:space="preserve">gruppo</t>
   </si>
   <si>
-    <t xml:space="preserve">ore a recupero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBINI ALBERTO</t>
+    <t xml:space="preserve">ore da recuperare</t>
   </si>
   <si>
     <t xml:space="preserve">inglese</t>
   </si>
   <si>
-    <t xml:space="preserve">ALOI DOMENICO ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANASTASI ANTONELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANASTASI PAOLA</t>
-  </si>
-  <si>
     <t xml:space="preserve">lettere</t>
   </si>
   <si>
-    <t xml:space="preserve">ANGELONI PAOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGELONI RITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGELLO PINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALDELLI MICHELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALDICCHI ALESSANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALDINUCCI ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAZZUCCHI LORENZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEI EGISTO</t>
-  </si>
-  <si>
     <t xml:space="preserve">matematica</t>
   </si>
   <si>
-    <t xml:space="preserve">BELLUCCI ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENELLI ELISABETTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIAGINI ALESSANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIAGIOLI SABRINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINAGLIA FEDERICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLASI BEATRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONINI BALDINI ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGNINI VALENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUNELLI GIOVANNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUNETTI BRUNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACCIAMANI VALERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPOCCIA SANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLETTI MATTEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARNEVALI ANGELA da gennaio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTELLANI STEFANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CECCHETTI SARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CECCHINI BEATRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERIMONIA VALENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESARINI ANNA MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHINDAMO CLAUDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHIOCCI MATTEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CILIEGI SIMONETTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIPRIANI LUCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEMENTI MARIA CECILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUCCHIARINI FRANCESCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUTUGNO CHIARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOLFI MARIA PIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBOLI MARIA (DISP X 1M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALLERI GIORDANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARNETI GLORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARNETI SOFIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FELIZIANI ROLANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINORI STEFANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIORUCCI  FILIPPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMINI ANNA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORTINI GLORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCESCHETTI M. CHIARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRATELLINI ELISABETTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRONDIZI CLAUDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASPARRI ELISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIACOMETTI ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIAMAGLI ARNALDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIAMMARIOLI CLAUDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIANNANGELI JACOPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIOMBETTI GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIORGI ELISABETTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIULI ROBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIULIANO FRANCESCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPPOLITI PAOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABITA GIUSEPPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANI LUCIO SILVESTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNANI LOREDANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUPINI PAVILIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUPPARELLI SERGIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGINI ALDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANCINI PAOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUALI MARISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARANGHI SAMUELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCONI LEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIANI KATIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIUCCI MICHELANGELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINI MARTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSETTI MICHELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASTRANGELI MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAZZOCCHIO MANUELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAZZOLI ALESSANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELETTI MARCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENICHETTI GABRIELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENICHETTI GIOVANNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICANTI ENRICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINELLI BARBARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINELLI IVAN FEDERICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOMI STEFANIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONARCHI VALENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORELLI MARCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARDELLI ANNA LISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVAZIO MARIA CLARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NERI CRISTIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORFEI FRANCESCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALLUCCA PAOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANENI TANIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANFILI EDOARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANFILI MARCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANNACCI TIZIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASQUARELLI FABIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSERI LOREDANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PECORARI ROBERTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERIOLI CRISTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PESCE ANTONELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETRINI TIZIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PICCOTTI FERRUCCIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PICCOTTI ROSELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIERDICA MARINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIERINI FABIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCACCI  CLAUDIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAGNI ADRIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RONDELLI COSETTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSSI ROBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYABUKHA TATIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALDI  SARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTORI MASSIMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCASSELLATI ELEONORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCORTICHINI GIACOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIANI FABIOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECCHI MARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMACCHI ANNA RITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPACCASASSI MARTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIGARELLI STEFANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STASI MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOCCHI DAVIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TASSO LUCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOGNOLONI SILVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMARELLI LUIGI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMARELLI PAOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMASSINI ROBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVAGLIA PAOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVERSINI ANTONELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBITO MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALCELLI LUCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALENTINI FRANCESCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARANO MARINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLA ANTONELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZANGARELLI PAOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEPPA TIZIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOPPIS LUCIA</t>
+    <t xml:space="preserve">insegnante finto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italiano</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3451,6 +3049,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3530,11 +3132,11 @@
   </sheetPr>
   <dimension ref="A1:CA395"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F150" activeCellId="1" sqref="AC74:AE74 F150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I201" activeCellId="0" sqref="I201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.57"/>
@@ -27746,11 +27348,11 @@
   </sheetPr>
   <dimension ref="A1:AU94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC74" activeCellId="0" sqref="AC74:AE74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J78" activeCellId="0" sqref="J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.99"/>
   </cols>
@@ -29788,7 +29390,9 @@
         <v>352</v>
       </c>
       <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
+      <c r="C32" s="91" t="s">
+        <v>353</v>
+      </c>
       <c r="D32" s="91"/>
       <c r="E32" s="91"/>
       <c r="F32" s="91"/>
@@ -29834,7 +29438,7 @@
       <c r="AT32" s="138"/>
       <c r="AU32" s="111" t="n">
         <f aca="false">COUNTA(B32:AT32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29888,34 +29492,34 @@
     </row>
     <row r="34" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="125" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C34" s="91"/>
       <c r="D34" s="91"/>
       <c r="E34" s="91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F34" s="91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G34" s="91"/>
       <c r="H34" s="127"/>
       <c r="I34" s="91"/>
       <c r="J34" s="128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K34" s="95" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L34" s="96"/>
       <c r="M34" s="96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N34" s="96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O34" s="96"/>
       <c r="P34" s="96"/>
@@ -29923,50 +29527,50 @@
       <c r="R34" s="96"/>
       <c r="S34" s="131"/>
       <c r="T34" s="99" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U34" s="100" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V34" s="100"/>
       <c r="W34" s="100"/>
       <c r="X34" s="100" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y34" s="100" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z34" s="127"/>
       <c r="AA34" s="100"/>
       <c r="AB34" s="133"/>
       <c r="AC34" s="143"/>
       <c r="AD34" s="105" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE34" s="105" t="s">
         <v>355</v>
-      </c>
-      <c r="AE34" s="105" t="s">
-        <v>354</v>
       </c>
       <c r="AF34" s="105"/>
       <c r="AG34" s="105"/>
       <c r="AH34" s="105" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI34" s="127"/>
       <c r="AJ34" s="105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK34" s="135"/>
       <c r="AL34" s="136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM34" s="108"/>
       <c r="AN34" s="108"/>
       <c r="AO34" s="108"/>
       <c r="AP34" s="108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ34" s="108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AR34" s="127"/>
       <c r="AS34" s="108"/>
@@ -30027,16 +29631,16 @@
     </row>
     <row r="36" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E36" s="91"/>
       <c r="F36" s="91"/>
@@ -30046,16 +29650,16 @@
       <c r="J36" s="128"/>
       <c r="K36" s="95"/>
       <c r="L36" s="96" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M36" s="96" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N36" s="96" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O36" s="96" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P36" s="96"/>
       <c r="Q36" s="127"/>
@@ -30073,10 +29677,10 @@
       <c r="AC36" s="143"/>
       <c r="AD36" s="105"/>
       <c r="AE36" s="105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF36" s="105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG36" s="105"/>
       <c r="AH36" s="105"/>
@@ -30150,7 +29754,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="125" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B38" s="90"/>
       <c r="C38" s="91"/>
@@ -30160,10 +29764,10 @@
       <c r="G38" s="91"/>
       <c r="H38" s="127"/>
       <c r="I38" s="91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J38" s="128" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K38" s="95"/>
       <c r="L38" s="96"/>
@@ -30175,14 +29779,14 @@
       <c r="R38" s="96"/>
       <c r="S38" s="131"/>
       <c r="T38" s="99" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U38" s="100" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V38" s="100"/>
       <c r="W38" s="186" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="X38" s="100"/>
       <c r="Y38" s="100"/>
@@ -30190,29 +29794,29 @@
       <c r="AA38" s="100"/>
       <c r="AB38" s="133"/>
       <c r="AC38" s="143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD38" s="105" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AE38" s="105"/>
       <c r="AF38" s="187" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG38" s="187" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AH38" s="105"/>
       <c r="AI38" s="127"/>
       <c r="AJ38" s="187" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK38" s="188" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL38" s="136"/>
       <c r="AM38" s="108" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN38" s="108"/>
       <c r="AO38" s="108"/>
@@ -30277,7 +29881,7 @@
     </row>
     <row r="40" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="125" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" s="90"/>
       <c r="C40" s="91"/>
@@ -30388,68 +29992,68 @@
     </row>
     <row r="42" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="125" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E42" s="91"/>
       <c r="F42" s="91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G42" s="91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H42" s="127"/>
       <c r="I42" s="91"/>
       <c r="J42" s="128" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" s="95" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" s="96" t="s">
         <v>365</v>
-      </c>
-      <c r="K42" s="95" t="s">
-        <v>365</v>
-      </c>
-      <c r="L42" s="96" t="s">
-        <v>364</v>
       </c>
       <c r="M42" s="96"/>
       <c r="N42" s="96" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O42" s="96" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P42" s="96" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q42" s="127"/>
       <c r="R42" s="96"/>
       <c r="S42" s="131"/>
       <c r="T42" s="99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U42" s="100"/>
       <c r="V42" s="100" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W42" s="100"/>
       <c r="X42" s="100" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y42" s="100" t="s">
         <v>365</v>
-      </c>
-      <c r="Y42" s="100" t="s">
-        <v>364</v>
       </c>
       <c r="Z42" s="127"/>
       <c r="AA42" s="100"/>
       <c r="AB42" s="133"/>
       <c r="AC42" s="143"/>
       <c r="AD42" s="105" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE42" s="105"/>
       <c r="AF42" s="105"/>
@@ -30459,15 +30063,15 @@
       <c r="AJ42" s="105"/>
       <c r="AK42" s="135"/>
       <c r="AL42" s="136" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM42" s="108"/>
       <c r="AN42" s="108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO42" s="108"/>
       <c r="AP42" s="108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AQ42" s="108"/>
       <c r="AR42" s="127"/>
@@ -30531,19 +30135,19 @@
     </row>
     <row r="44" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B44" s="126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C44" s="91" t="s">
         <v>328</v>
       </c>
       <c r="D44" s="181" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E44" s="181" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F44" s="91" t="s">
         <v>328</v>
@@ -30563,7 +30167,7 @@
         <v>328</v>
       </c>
       <c r="O44" s="182" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P44" s="96"/>
       <c r="Q44" s="127"/>
@@ -30593,7 +30197,7 @@
       <c r="AE44" s="105"/>
       <c r="AF44" s="105"/>
       <c r="AG44" s="187" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH44" s="105" t="s">
         <v>328</v>
@@ -30603,16 +30207,16 @@
       <c r="AK44" s="135"/>
       <c r="AL44" s="177"/>
       <c r="AM44" s="137" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN44" s="190" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO44" s="190" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP44" s="190" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AQ44" s="108"/>
       <c r="AR44" s="127"/>
@@ -30676,67 +30280,67 @@
     </row>
     <row r="46" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="125" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" s="90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C46" s="91"/>
       <c r="D46" s="91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E46" s="91"/>
       <c r="F46" s="91"/>
       <c r="G46" s="91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H46" s="127"/>
       <c r="I46" s="91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J46" s="128" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K46" s="95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L46" s="96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M46" s="96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N46" s="96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O46" s="96"/>
       <c r="P46" s="96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q46" s="127"/>
       <c r="R46" s="96"/>
       <c r="S46" s="131"/>
       <c r="T46" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="U46" s="100" t="s">
         <v>371</v>
       </c>
-      <c r="U46" s="100" t="s">
-        <v>370</v>
-      </c>
       <c r="V46" s="100" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="W46" s="186"/>
       <c r="X46" s="100" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y46" s="100" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z46" s="127"/>
       <c r="AA46" s="100"/>
       <c r="AB46" s="133"/>
       <c r="AC46" s="143" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD46" s="105"/>
       <c r="AE46" s="105"/>
@@ -30747,7 +30351,7 @@
       <c r="AJ46" s="105"/>
       <c r="AK46" s="135"/>
       <c r="AL46" s="136" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM46" s="108"/>
       <c r="AN46" s="108"/>
@@ -30815,46 +30419,46 @@
     </row>
     <row r="48" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="125" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B48" s="90"/>
       <c r="C48" s="91"/>
       <c r="D48" s="91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E48" s="91"/>
       <c r="F48" s="91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G48" s="91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H48" s="127"/>
       <c r="I48" s="91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J48" s="128"/>
       <c r="K48" s="95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L48" s="96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M48" s="96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N48" s="96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O48" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="P48" s="96" t="s">
         <v>374</v>
-      </c>
-      <c r="P48" s="96" t="s">
-        <v>373</v>
       </c>
       <c r="Q48" s="127"/>
       <c r="R48" s="96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="S48" s="131"/>
       <c r="T48" s="99"/>
@@ -30870,30 +30474,30 @@
       <c r="AD48" s="105"/>
       <c r="AE48" s="105"/>
       <c r="AF48" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG48" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="AG48" s="105" t="s">
-        <v>373</v>
-      </c>
       <c r="AH48" s="105" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI48" s="127"/>
       <c r="AJ48" s="105"/>
       <c r="AK48" s="135"/>
       <c r="AL48" s="136" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM48" s="108"/>
       <c r="AN48" s="108" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO48" s="108" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP48" s="137"/>
       <c r="AQ48" s="108" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AR48" s="127"/>
       <c r="AS48" s="108"/>
@@ -30954,36 +30558,36 @@
     </row>
     <row r="50" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" s="90"/>
       <c r="C50" s="91"/>
       <c r="D50" s="91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E50" s="91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F50" s="91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G50" s="91"/>
       <c r="H50" s="127"/>
       <c r="I50" s="91"/>
       <c r="J50" s="128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K50" s="95"/>
       <c r="L50" s="96"/>
       <c r="M50" s="96" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N50" s="96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O50" s="96"/>
       <c r="P50" s="96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q50" s="127"/>
       <c r="R50" s="96"/>
@@ -30991,29 +30595,29 @@
       <c r="T50" s="99"/>
       <c r="U50" s="100"/>
       <c r="V50" s="100" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W50" s="100" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="X50" s="100" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y50" s="100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z50" s="127"/>
       <c r="AA50" s="100"/>
       <c r="AB50" s="133"/>
       <c r="AC50" s="143" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AD50" s="105"/>
       <c r="AE50" s="105" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF50" s="105" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG50" s="105"/>
       <c r="AH50" s="105"/>
@@ -31023,16 +30627,16 @@
       <c r="AL50" s="136"/>
       <c r="AM50" s="108"/>
       <c r="AN50" s="108" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO50" s="108" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP50" s="108" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ50" s="108" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR50" s="127"/>
       <c r="AS50" s="108"/>
@@ -31093,32 +30697,32 @@
     </row>
     <row r="52" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="125" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B52" s="90" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C52" s="91" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D52" s="91"/>
       <c r="E52" s="91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F52" s="91"/>
       <c r="G52" s="91"/>
       <c r="H52" s="127"/>
       <c r="I52" s="91"/>
       <c r="J52" s="128" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K52" s="95"/>
       <c r="L52" s="96"/>
       <c r="M52" s="96" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N52" s="96" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O52" s="96"/>
       <c r="P52" s="96"/>
@@ -31129,7 +30733,7 @@
       <c r="U52" s="100"/>
       <c r="V52" s="100"/>
       <c r="W52" s="100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="X52" s="100"/>
       <c r="Y52" s="100"/>
@@ -31139,7 +30743,7 @@
       <c r="AC52" s="143"/>
       <c r="AD52" s="105"/>
       <c r="AE52" s="105" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
@@ -31149,17 +30753,17 @@
       <c r="AK52" s="135"/>
       <c r="AL52" s="136"/>
       <c r="AM52" s="108" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN52" s="108" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO52" s="108" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP52" s="108"/>
       <c r="AQ52" s="108" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AR52" s="127"/>
       <c r="AS52" s="108"/>
@@ -31220,49 +30824,49 @@
     </row>
     <row r="54" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="125" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C54" s="91"/>
       <c r="D54" s="193"/>
       <c r="E54" s="91"/>
       <c r="F54" s="91" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G54" s="91"/>
       <c r="H54" s="127"/>
       <c r="I54" s="91"/>
       <c r="J54" s="128" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K54" s="95"/>
       <c r="L54" s="96"/>
       <c r="M54" s="96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N54" s="96"/>
       <c r="O54" s="96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P54" s="96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q54" s="127"/>
       <c r="R54" s="96"/>
       <c r="S54" s="131"/>
       <c r="T54" s="99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="U54" s="100" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V54" s="100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W54" s="100" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="X54" s="100"/>
       <c r="Y54" s="100"/>
@@ -31270,34 +30874,34 @@
       <c r="AA54" s="100"/>
       <c r="AB54" s="133"/>
       <c r="AC54" s="105" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AD54" s="105" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AE54" s="105" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF54" s="105"/>
       <c r="AG54" s="105"/>
       <c r="AH54" s="105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AI54" s="127"/>
       <c r="AJ54" s="105"/>
       <c r="AK54" s="135"/>
       <c r="AL54" s="136"/>
       <c r="AM54" s="108" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN54" s="108" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO54" s="108" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP54" s="108" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AQ54" s="108"/>
       <c r="AR54" s="127"/>
@@ -31359,7 +30963,7 @@
     </row>
     <row r="56" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="125" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B56" s="90"/>
       <c r="C56" s="91"/>
@@ -31367,35 +30971,35 @@
       <c r="E56" s="91"/>
       <c r="F56" s="91"/>
       <c r="G56" s="91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H56" s="127"/>
       <c r="I56" s="91" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J56" s="128"/>
       <c r="K56" s="95"/>
       <c r="L56" s="96" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M56" s="96" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N56" s="96"/>
       <c r="O56" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="P56" s="96" t="s">
         <v>384</v>
-      </c>
-      <c r="P56" s="96" t="s">
-        <v>383</v>
       </c>
       <c r="Q56" s="127"/>
       <c r="R56" s="96"/>
       <c r="S56" s="131"/>
       <c r="T56" s="99" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U56" s="100" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V56" s="100"/>
       <c r="W56" s="100"/>
@@ -31405,39 +31009,39 @@
       <c r="AA56" s="100"/>
       <c r="AB56" s="133"/>
       <c r="AC56" s="143" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AD56" s="105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AE56" s="105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF56" s="105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG56" s="105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AH56" s="105"/>
       <c r="AI56" s="127"/>
       <c r="AJ56" s="105"/>
       <c r="AK56" s="135"/>
       <c r="AL56" s="136" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM56" s="108" t="s">
         <v>384</v>
-      </c>
-      <c r="AM56" s="108" t="s">
-        <v>383</v>
       </c>
       <c r="AN56" s="108"/>
       <c r="AO56" s="108" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP56" s="108" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ56" s="108" t="s">
         <v>384</v>
-      </c>
-      <c r="AP56" s="108" t="s">
-        <v>384</v>
-      </c>
-      <c r="AQ56" s="108" t="s">
-        <v>383</v>
       </c>
       <c r="AR56" s="127"/>
       <c r="AS56" s="108"/>
@@ -31498,16 +31102,16 @@
     </row>
     <row r="58" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="171" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B58" s="90"/>
       <c r="C58" s="91"/>
       <c r="D58" s="91"/>
       <c r="E58" s="181" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F58" s="181" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G58" s="91"/>
       <c r="H58" s="127"/>
@@ -31543,13 +31147,13 @@
       <c r="AL58" s="136"/>
       <c r="AM58" s="108"/>
       <c r="AN58" s="137" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO58" s="137" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP58" s="137" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AQ58" s="108"/>
       <c r="AR58" s="127"/>
@@ -31615,7 +31219,7 @@
     </row>
     <row r="60" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="125" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B60" s="90"/>
       <c r="C60" s="91"/>
@@ -31631,10 +31235,10 @@
       <c r="M60" s="96"/>
       <c r="N60" s="96"/>
       <c r="O60" s="96" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P60" s="96" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q60" s="127"/>
       <c r="R60" s="96"/>
@@ -31644,10 +31248,10 @@
       <c r="V60" s="100"/>
       <c r="W60" s="100"/>
       <c r="X60" s="100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y60" s="100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z60" s="127"/>
       <c r="AA60" s="100"/>
@@ -31665,10 +31269,10 @@
       <c r="AM60" s="108"/>
       <c r="AN60" s="108"/>
       <c r="AO60" s="108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP60" s="108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AQ60" s="108"/>
       <c r="AR60" s="127"/>
@@ -31732,7 +31336,7 @@
     </row>
     <row r="62" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="125" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
@@ -31853,7 +31457,7 @@
     </row>
     <row r="64" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="171" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B64" s="90" t="s">
         <v>26</v>
@@ -31866,7 +31470,7 @@
       </c>
       <c r="E64" s="91"/>
       <c r="F64" s="91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G64" s="91"/>
       <c r="H64" s="127"/>
@@ -31874,13 +31478,13 @@
       <c r="J64" s="128"/>
       <c r="K64" s="95"/>
       <c r="L64" s="96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M64" s="96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N64" s="96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O64" s="96"/>
       <c r="P64" s="96"/>
@@ -31889,30 +31493,30 @@
       <c r="S64" s="131"/>
       <c r="T64" s="99"/>
       <c r="U64" s="100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V64" s="100" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W64" s="100" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="X64" s="100" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y64" s="100"/>
       <c r="Z64" s="127"/>
       <c r="AA64" s="100"/>
       <c r="AB64" s="133"/>
       <c r="AC64" s="143" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AD64" s="105"/>
       <c r="AE64" s="105" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF64" s="105" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG64" s="105"/>
       <c r="AH64" s="105"/>
@@ -31922,16 +31526,16 @@
       <c r="AL64" s="136"/>
       <c r="AM64" s="108"/>
       <c r="AN64" s="108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO64" s="108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP64" s="108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ64" s="108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AR64" s="127"/>
       <c r="AS64" s="108"/>
@@ -31994,14 +31598,14 @@
     </row>
     <row r="66" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="125" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B66" s="90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C66" s="181"/>
       <c r="D66" s="90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E66" s="91"/>
       <c r="F66" s="91"/>
@@ -32010,22 +31614,22 @@
       <c r="I66" s="90"/>
       <c r="J66" s="90"/>
       <c r="K66" s="198" t="s">
+        <v>394</v>
+      </c>
+      <c r="L66" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="M66" s="90" t="s">
         <v>393</v>
       </c>
-      <c r="L66" s="199" t="s">
+      <c r="N66" s="90" t="s">
         <v>393</v>
       </c>
-      <c r="M66" s="90" t="s">
-        <v>392</v>
-      </c>
-      <c r="N66" s="90" t="s">
-        <v>392</v>
-      </c>
       <c r="O66" s="90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P66" s="90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q66" s="127"/>
       <c r="R66" s="96"/>
@@ -32033,10 +31637,10 @@
       <c r="T66" s="99"/>
       <c r="U66" s="100"/>
       <c r="V66" s="90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W66" s="199" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="X66" s="100"/>
       <c r="Y66" s="100"/>
@@ -32044,34 +31648,34 @@
       <c r="AA66" s="90"/>
       <c r="AB66" s="90"/>
       <c r="AC66" s="90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AD66" s="90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AE66" s="143"/>
       <c r="AF66" s="105"/>
       <c r="AG66" s="199" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AH66" s="105"/>
       <c r="AI66" s="127"/>
       <c r="AJ66" s="105"/>
       <c r="AK66" s="135"/>
       <c r="AL66" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM66" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN66" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO66" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP66" s="90" t="s">
         <v>393</v>
-      </c>
-      <c r="AM66" s="199" t="s">
-        <v>393</v>
-      </c>
-      <c r="AN66" s="199" t="s">
-        <v>393</v>
-      </c>
-      <c r="AO66" s="199" t="s">
-        <v>393</v>
-      </c>
-      <c r="AP66" s="90" t="s">
-        <v>392</v>
       </c>
       <c r="AQ66" s="108"/>
       <c r="AR66" s="127"/>
@@ -32085,13 +31689,13 @@
     <row r="67" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="112"/>
       <c r="B67" s="200" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C67" s="114" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="201" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E67" s="114"/>
       <c r="F67" s="114"/>
@@ -32100,22 +31704,22 @@
       <c r="I67" s="202"/>
       <c r="J67" s="202"/>
       <c r="K67" s="203" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L67" s="204" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M67" s="200" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N67" s="200" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O67" s="200" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P67" s="200" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q67" s="141"/>
       <c r="R67" s="114"/>
@@ -32123,10 +31727,10 @@
       <c r="T67" s="113"/>
       <c r="U67" s="114"/>
       <c r="V67" s="200" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="W67" s="204" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="X67" s="114"/>
       <c r="Y67" s="114"/>
@@ -32134,34 +31738,34 @@
       <c r="AA67" s="205"/>
       <c r="AB67" s="205"/>
       <c r="AC67" s="200" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AD67" s="200" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AE67" s="118"/>
       <c r="AF67" s="114"/>
       <c r="AG67" s="204" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AH67" s="114"/>
       <c r="AI67" s="141"/>
       <c r="AJ67" s="114"/>
       <c r="AK67" s="121"/>
       <c r="AL67" s="204" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM67" s="204" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN67" s="204" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO67" s="204" t="s">
         <v>397</v>
       </c>
-      <c r="AM67" s="204" t="s">
-        <v>397</v>
-      </c>
-      <c r="AN67" s="204" t="s">
-        <v>395</v>
-      </c>
-      <c r="AO67" s="204" t="s">
+      <c r="AP67" s="200" t="s">
         <v>396</v>
-      </c>
-      <c r="AP67" s="200" t="s">
-        <v>395</v>
       </c>
       <c r="AQ67" s="114"/>
       <c r="AR67" s="141"/>
@@ -32171,37 +31775,37 @@
     </row>
     <row r="68" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B68" s="90" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D68" s="91"/>
       <c r="E68" s="91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F68" s="91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G68" s="91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H68" s="127"/>
       <c r="I68" s="91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J68" s="128"/>
       <c r="K68" s="95"/>
       <c r="L68" s="96"/>
       <c r="M68" s="96"/>
       <c r="N68" s="96" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O68" s="96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P68" s="96"/>
       <c r="Q68" s="127"/>
@@ -32209,36 +31813,36 @@
       <c r="S68" s="131"/>
       <c r="T68" s="99"/>
       <c r="U68" s="186" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V68" s="100"/>
       <c r="W68" s="100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X68" s="100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y68" s="100"/>
       <c r="Z68" s="127"/>
       <c r="AA68" s="100"/>
       <c r="AB68" s="133"/>
       <c r="AC68" s="143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AD68" s="105" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE68" s="105" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF68" s="105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG68" s="105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AH68" s="105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI68" s="127"/>
       <c r="AJ68" s="105"/>
@@ -32247,10 +31851,10 @@
       <c r="AM68" s="108"/>
       <c r="AN68" s="108"/>
       <c r="AO68" s="108" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AP68" s="108" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AQ68" s="108"/>
       <c r="AR68" s="127"/>
@@ -32312,49 +31916,49 @@
     </row>
     <row r="70" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B70" s="90"/>
       <c r="C70" s="91"/>
       <c r="D70" s="91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E70" s="91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F70" s="91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G70" s="91"/>
       <c r="H70" s="127"/>
       <c r="I70" s="91"/>
       <c r="J70" s="128"/>
       <c r="K70" s="95" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L70" s="96"/>
       <c r="M70" s="96"/>
       <c r="N70" s="96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O70" s="96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P70" s="96"/>
       <c r="Q70" s="127"/>
       <c r="R70" s="96"/>
       <c r="S70" s="131"/>
       <c r="T70" s="99" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U70" s="100"/>
       <c r="V70" s="100"/>
       <c r="W70" s="100"/>
       <c r="X70" s="100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y70" s="100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z70" s="127"/>
       <c r="AA70" s="100"/>
@@ -32370,17 +31974,17 @@
       <c r="AK70" s="135"/>
       <c r="AL70" s="136"/>
       <c r="AM70" s="108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN70" s="108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO70" s="108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AP70" s="108"/>
       <c r="AQ70" s="108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AR70" s="127"/>
       <c r="AS70" s="108"/>
@@ -32441,7 +32045,7 @@
     </row>
     <row r="72" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B72" s="90" t="s">
         <v>346</v>
@@ -32455,12 +32059,12 @@
         <v>346</v>
       </c>
       <c r="G72" s="91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H72" s="127"/>
       <c r="I72" s="91"/>
       <c r="J72" s="128" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K72" s="95"/>
       <c r="L72" s="96"/>
@@ -32487,13 +32091,13 @@
       </c>
       <c r="V72" s="100"/>
       <c r="W72" s="100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="X72" s="100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y72" s="100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z72" s="127"/>
       <c r="AA72" s="100"/>
@@ -32503,20 +32107,20 @@
       <c r="AE72" s="105"/>
       <c r="AF72" s="105"/>
       <c r="AG72" s="105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH72" s="105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AI72" s="127"/>
       <c r="AJ72" s="105"/>
       <c r="AK72" s="135"/>
       <c r="AL72" s="136"/>
       <c r="AM72" s="108" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN72" s="108" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO72" s="108" t="s">
         <v>346</v>
@@ -32582,42 +32186,42 @@
     </row>
     <row r="74" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B74" s="207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C74" s="207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D74" s="92"/>
       <c r="E74" s="91" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F74" s="91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G74" s="91"/>
       <c r="H74" s="93"/>
       <c r="I74" s="207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J74" s="207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K74" s="95" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L74" s="96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M74" s="97"/>
       <c r="N74" s="97"/>
       <c r="O74" s="208" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P74" s="208" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q74" s="93"/>
       <c r="R74" s="97"/>
@@ -32625,7 +32229,7 @@
       <c r="T74" s="209"/>
       <c r="U74" s="101"/>
       <c r="V74" s="210" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W74" s="100"/>
       <c r="X74" s="100"/>
@@ -32634,22 +32238,22 @@
       <c r="AA74" s="101"/>
       <c r="AB74" s="102"/>
       <c r="AC74" s="207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD74" s="207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AE74" s="207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF74" s="211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG74" s="211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AH74" s="211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI74" s="93"/>
       <c r="AJ74" s="104"/>
@@ -32721,13 +32325,13 @@
     </row>
     <row r="76" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D76" s="91"/>
       <c r="E76" s="91"/>
@@ -32735,7 +32339,7 @@
       <c r="G76" s="91"/>
       <c r="H76" s="127"/>
       <c r="I76" s="91" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J76" s="128"/>
       <c r="K76" s="95" t="s">
@@ -32743,27 +32347,27 @@
       </c>
       <c r="L76" s="96"/>
       <c r="M76" s="96" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N76" s="96" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O76" s="96"/>
       <c r="P76" s="96" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q76" s="127"/>
       <c r="R76" s="96"/>
       <c r="S76" s="131"/>
       <c r="T76" s="99"/>
       <c r="U76" s="100" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V76" s="100" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="W76" s="100" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="X76" s="100" t="s">
         <v>346</v>
@@ -32775,10 +32379,10 @@
       <c r="AC76" s="143"/>
       <c r="AD76" s="105"/>
       <c r="AE76" s="105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF76" s="105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG76" s="105"/>
       <c r="AH76" s="105"/>
@@ -32853,7 +32457,7 @@
     </row>
     <row r="78" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="125" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B78" s="90"/>
       <c r="C78" s="91"/>
@@ -32865,7 +32469,7 @@
       <c r="I78" s="91"/>
       <c r="J78" s="128"/>
       <c r="K78" s="95" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L78" s="96"/>
       <c r="M78" s="96"/>
@@ -32880,7 +32484,7 @@
       <c r="V78" s="100"/>
       <c r="W78" s="100"/>
       <c r="X78" s="100" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y78" s="100"/>
       <c r="Z78" s="127"/>
@@ -32889,24 +32493,24 @@
       <c r="AC78" s="143"/>
       <c r="AD78" s="105"/>
       <c r="AE78" s="105" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF78" s="105"/>
       <c r="AG78" s="105" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AH78" s="105"/>
       <c r="AI78" s="127"/>
       <c r="AJ78" s="105"/>
       <c r="AK78" s="135"/>
       <c r="AL78" s="136" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM78" s="108"/>
       <c r="AN78" s="108"/>
       <c r="AO78" s="108"/>
       <c r="AP78" s="108" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AQ78" s="108"/>
       <c r="AR78" s="127"/>
@@ -32968,53 +32572,53 @@
     </row>
     <row r="80" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B80" s="90"/>
       <c r="C80" s="91"/>
       <c r="D80" s="181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E80" s="181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F80" s="181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G80" s="91"/>
       <c r="H80" s="127"/>
       <c r="I80" s="91"/>
       <c r="J80" s="128"/>
       <c r="K80" s="189" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L80" s="182" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M80" s="182" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N80" s="182" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O80" s="182" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P80" s="96"/>
       <c r="Q80" s="127"/>
       <c r="R80" s="96"/>
       <c r="S80" s="131"/>
       <c r="T80" s="132" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U80" s="186" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V80" s="186" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W80" s="186" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="X80" s="213"/>
       <c r="Y80" s="100"/>
@@ -33022,10 +32626,10 @@
       <c r="AA80" s="100"/>
       <c r="AB80" s="133"/>
       <c r="AC80" s="214" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD80" s="187" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AE80" s="105"/>
       <c r="AF80" s="105"/>
@@ -33035,19 +32639,19 @@
       <c r="AJ80" s="105"/>
       <c r="AK80" s="135"/>
       <c r="AL80" s="177" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM80" s="137" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN80" s="137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO80" s="137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP80" s="137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ80" s="108"/>
       <c r="AR80" s="127"/>
@@ -33109,12 +32713,12 @@
     </row>
     <row r="82" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="125" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B82" s="90"/>
       <c r="C82" s="91"/>
       <c r="D82" s="91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E82" s="91" t="s">
         <v>339</v>
@@ -33131,7 +32735,7 @@
         <v>338</v>
       </c>
       <c r="K82" s="95" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L82" s="96" t="s">
         <v>339</v>
@@ -33141,7 +32745,7 @@
       </c>
       <c r="N82" s="96"/>
       <c r="O82" s="96" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P82" s="96"/>
       <c r="Q82" s="127"/>
@@ -33154,7 +32758,7 @@
         <v>339</v>
       </c>
       <c r="W82" s="100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X82" s="213" t="s">
         <v>338</v>
@@ -33182,12 +32786,12 @@
       <c r="AK82" s="135"/>
       <c r="AL82" s="136"/>
       <c r="AM82" s="108" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN82" s="108"/>
       <c r="AO82" s="108"/>
       <c r="AP82" s="216" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AQ82" s="108"/>
       <c r="AR82" s="127"/>
@@ -33251,89 +32855,89 @@
     </row>
     <row r="84" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="125" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B84" s="90"/>
       <c r="C84" s="91"/>
       <c r="D84" s="91" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E84" s="217"/>
       <c r="F84" s="91"/>
       <c r="G84" s="91"/>
       <c r="H84" s="127"/>
       <c r="I84" s="91" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J84" s="128"/>
       <c r="K84" s="96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L84" s="96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M84" s="96"/>
       <c r="N84" s="96"/>
       <c r="O84" s="96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P84" s="96" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q84" s="127"/>
       <c r="R84" s="96"/>
       <c r="S84" s="131"/>
       <c r="T84" s="100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U84" s="100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V84" s="100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W84" s="100"/>
       <c r="X84" s="100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y84" s="100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z84" s="127"/>
       <c r="AA84" s="100"/>
       <c r="AB84" s="133"/>
       <c r="AC84" s="143"/>
       <c r="AD84" s="105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE84" s="105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF84" s="105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG84" s="105"/>
       <c r="AH84" s="105" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AI84" s="127"/>
       <c r="AJ84" s="105"/>
       <c r="AK84" s="135"/>
       <c r="AL84" s="108" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM84" s="108" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN84" s="108" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO84" s="108"/>
       <c r="AP84" s="108" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AQ84" s="108" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AR84" s="127"/>
       <c r="AS84" s="108"/>
@@ -33392,7 +32996,7 @@
     </row>
     <row r="86" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="125" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B86" s="90"/>
       <c r="C86" s="181" t="s">
@@ -33535,57 +33139,57 @@
     </row>
     <row r="88" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="125" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B88" s="220" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C88" s="91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D88" s="91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E88" s="91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F88" s="91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G88" s="91"/>
       <c r="H88" s="127"/>
       <c r="I88" s="91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J88" s="128"/>
       <c r="K88" s="95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L88" s="96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M88" s="96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N88" s="96"/>
       <c r="O88" s="96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P88" s="96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q88" s="127"/>
       <c r="R88" s="96"/>
       <c r="S88" s="131"/>
       <c r="T88" s="99" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U88" s="100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V88" s="100"/>
       <c r="W88" s="100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="X88" s="100"/>
       <c r="Y88" s="100"/>
@@ -33595,7 +33199,7 @@
       <c r="AC88" s="143"/>
       <c r="AD88" s="105"/>
       <c r="AE88" s="105" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF88" s="105"/>
       <c r="AG88" s="105"/>
@@ -33604,16 +33208,16 @@
       <c r="AJ88" s="105"/>
       <c r="AK88" s="135"/>
       <c r="AL88" s="136" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM88" s="108"/>
       <c r="AN88" s="108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO88" s="108"/>
       <c r="AP88" s="108"/>
       <c r="AQ88" s="108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AR88" s="127"/>
       <c r="AS88" s="108"/>
@@ -33674,7 +33278,7 @@
     </row>
     <row r="90" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="125" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B90" s="90"/>
       <c r="C90" s="91" t="s">
@@ -33689,17 +33293,17 @@
       <c r="H90" s="127"/>
       <c r="I90" s="91"/>
       <c r="J90" s="128" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K90" s="95"/>
       <c r="L90" s="96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M90" s="96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N90" s="96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O90" s="96" t="s">
         <v>351</v>
@@ -33709,16 +33313,16 @@
       <c r="R90" s="96"/>
       <c r="S90" s="131"/>
       <c r="T90" s="99" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U90" s="100" t="s">
         <v>345</v>
       </c>
       <c r="V90" s="100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W90" s="100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="X90" s="100"/>
       <c r="Y90" s="100"/>
@@ -33726,14 +33330,14 @@
       <c r="AA90" s="100"/>
       <c r="AB90" s="133"/>
       <c r="AC90" s="143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AD90" s="105"/>
       <c r="AE90" s="105" t="s">
         <v>351</v>
       </c>
       <c r="AF90" s="105" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG90" s="105" t="s">
         <v>351</v>
@@ -33743,7 +33347,7 @@
       <c r="AJ90" s="105"/>
       <c r="AK90" s="135"/>
       <c r="AL90" s="136" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM90" s="108"/>
       <c r="AN90" s="108" t="s">
@@ -33751,7 +33355,7 @@
       </c>
       <c r="AO90" s="108"/>
       <c r="AP90" s="108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AQ90" s="108"/>
       <c r="AR90" s="127"/>
@@ -33838,31 +33442,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B125" activeCellId="1" sqref="AC74:AE74 B125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>422</v>
+      <c r="A2" s="221" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>423</v>
@@ -33872,8 +33476,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>424</v>
+      <c r="A3" s="221" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>423</v>
@@ -33883,8 +33487,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>425</v>
+      <c r="A4" s="221" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>423</v>
@@ -33894,30 +33498,30 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>426</v>
+      <c r="A5" s="221" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>428</v>
+      <c r="A6" s="221" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>429</v>
+      <c r="A7" s="221" t="s">
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>423</v>
@@ -33927,8 +33531,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>430</v>
+      <c r="A8" s="221" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>423</v>
@@ -33938,8 +33542,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>431</v>
+      <c r="A9" s="221" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>423</v>
@@ -33949,52 +33553,52 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>432</v>
+      <c r="A10" s="221" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>433</v>
+      <c r="A11" s="221" t="s">
+        <v>91</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>434</v>
+      <c r="A12" s="221" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>435</v>
+      <c r="A13" s="221" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>437</v>
+      <c r="A14" s="221" t="s">
+        <v>105</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>423</v>
@@ -34004,8 +33608,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>438</v>
+      <c r="A15" s="221" t="s">
+        <v>109</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>423</v>
@@ -34015,118 +33619,118 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>439</v>
+      <c r="A16" s="221" t="s">
+        <v>112</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>440</v>
+      <c r="A17" s="221" t="s">
+        <v>115</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>441</v>
+      <c r="A18" s="221" t="s">
+        <v>116</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>442</v>
+      <c r="A19" s="221" t="s">
+        <v>123</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>443</v>
+      <c r="A20" s="221" t="s">
+        <v>128</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>444</v>
+      <c r="A21" s="221" t="s">
+        <v>130</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>445</v>
+      <c r="A22" s="221" t="s">
+        <v>136</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>446</v>
+      <c r="A23" s="221" t="s">
+        <v>140</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>447</v>
+      <c r="A24" s="221" t="s">
+        <v>142</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>448</v>
+      <c r="A25" s="221" t="s">
+        <v>146</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>449</v>
+      <c r="A26" s="221" t="s">
+        <v>150</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>423</v>
@@ -34136,8 +33740,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>450</v>
+      <c r="A27" s="221" t="s">
+        <v>154</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>423</v>
@@ -34147,8 +33751,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>451</v>
+      <c r="A28" s="221" t="s">
+        <v>157</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>423</v>
@@ -34158,30 +33762,30 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>452</v>
+      <c r="A29" s="221" t="s">
+        <v>158</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>453</v>
+      <c r="A30" s="221" t="s">
+        <v>161</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>454</v>
+      <c r="A31" s="221" t="s">
+        <v>168</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>423</v>
@@ -34191,8 +33795,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>455</v>
+      <c r="A32" s="221" t="s">
+        <v>169</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>423</v>
@@ -34202,8 +33806,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>456</v>
+      <c r="A33" s="221" t="s">
+        <v>170</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>423</v>
@@ -34213,52 +33817,52 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>457</v>
+      <c r="A34" s="221" t="s">
+        <v>174</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>458</v>
+      <c r="A35" s="221" t="s">
+        <v>175</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>459</v>
+      <c r="A36" s="221" t="s">
+        <v>177</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>460</v>
+      <c r="A37" s="221" t="s">
+        <v>180</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>461</v>
+      <c r="A38" s="221" t="s">
+        <v>183</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>423</v>
@@ -34268,8 +33872,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>462</v>
+      <c r="A39" s="221" t="s">
+        <v>185</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>423</v>
@@ -34279,118 +33883,118 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>463</v>
+      <c r="A40" s="221" t="s">
+        <v>186</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>464</v>
+      <c r="A41" s="221" t="s">
+        <v>188</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>465</v>
+      <c r="A42" s="221" t="s">
+        <v>190</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>466</v>
+      <c r="A43" s="221" t="s">
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>467</v>
+      <c r="A44" s="221" t="s">
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>468</v>
+      <c r="A45" s="221" t="s">
+        <v>198</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>469</v>
+      <c r="A46" s="221" t="s">
+        <v>204</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>470</v>
+      <c r="A47" s="221" t="s">
+        <v>209</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>471</v>
+      <c r="A48" s="221" t="s">
+        <v>211</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>472</v>
+      <c r="A49" s="221" t="s">
+        <v>214</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>473</v>
+      <c r="A50" s="221" t="s">
+        <v>215</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>423</v>
@@ -34400,8 +34004,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>474</v>
+      <c r="A51" s="221" t="s">
+        <v>217</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>423</v>
@@ -34411,8 +34015,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>475</v>
+      <c r="A52" s="221" t="s">
+        <v>218</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>423</v>
@@ -34422,30 +34026,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>476</v>
+      <c r="A53" s="221" t="s">
+        <v>220</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>477</v>
+      <c r="A54" s="221" t="s">
+        <v>221</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>478</v>
+      <c r="A55" s="221" t="s">
+        <v>222</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>423</v>
@@ -34455,8 +34059,8 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>479</v>
+      <c r="A56" s="221" t="s">
+        <v>223</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>423</v>
@@ -34466,8 +34070,8 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>480</v>
+      <c r="A57" s="221" t="s">
+        <v>226</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>423</v>
@@ -34477,52 +34081,52 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>481</v>
+      <c r="A58" s="221" t="s">
+        <v>228</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>482</v>
+      <c r="A59" s="221" t="s">
+        <v>229</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>483</v>
+      <c r="A60" s="221" t="s">
+        <v>230</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>484</v>
+      <c r="A61" s="221" t="s">
+        <v>231</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>485</v>
+      <c r="A62" s="221" t="s">
+        <v>232</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>423</v>
@@ -34532,8 +34136,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>486</v>
+      <c r="A63" s="221" t="s">
+        <v>233</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>423</v>
@@ -34543,118 +34147,118 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>487</v>
+      <c r="A64" s="221" t="s">
+        <v>235</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>488</v>
+      <c r="A65" s="221" t="s">
+        <v>237</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>489</v>
+      <c r="A66" s="221" t="s">
+        <v>239</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>490</v>
+      <c r="A67" s="221" t="s">
+        <v>240</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>491</v>
+      <c r="A68" s="221" t="s">
+        <v>241</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>492</v>
+      <c r="A69" s="221" t="s">
+        <v>242</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>493</v>
+      <c r="A70" s="221" t="s">
+        <v>243</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>494</v>
+      <c r="A71" s="221" t="s">
+        <v>244</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>495</v>
+      <c r="A72" s="221" t="s">
+        <v>245</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>496</v>
+      <c r="A73" s="221" t="s">
+        <v>246</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>497</v>
+      <c r="A74" s="221" t="s">
+        <v>247</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>423</v>
@@ -34664,8 +34268,8 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>372</v>
+      <c r="A75" s="221" t="s">
+        <v>249</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>423</v>
@@ -34675,8 +34279,8 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>498</v>
+      <c r="A76" s="221" t="s">
+        <v>250</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>423</v>
@@ -34686,30 +34290,30 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>499</v>
+      <c r="A77" s="221" t="s">
+        <v>251</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>500</v>
+      <c r="A78" s="221" t="s">
+        <v>252</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>501</v>
+      <c r="A79" s="221" t="s">
+        <v>253</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>423</v>
@@ -34719,8 +34323,8 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>502</v>
+      <c r="A80" s="221" t="s">
+        <v>254</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>423</v>
@@ -34730,8 +34334,8 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>503</v>
+      <c r="A81" s="221" t="s">
+        <v>255</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>423</v>
@@ -34741,52 +34345,52 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>504</v>
+      <c r="A82" s="221" t="s">
+        <v>256</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>505</v>
+      <c r="A83" s="221" t="s">
+        <v>257</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>506</v>
+      <c r="A84" s="221" t="s">
+        <v>258</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>507</v>
+      <c r="A85" s="221" t="s">
+        <v>259</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>508</v>
+      <c r="A86" s="221" t="s">
+        <v>260</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>423</v>
@@ -34796,8 +34400,8 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>509</v>
+      <c r="A87" s="221" t="s">
+        <v>261</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>423</v>
@@ -34807,118 +34411,118 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>510</v>
+      <c r="A88" s="221" t="s">
+        <v>262</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>511</v>
+      <c r="A89" s="221" t="s">
+        <v>263</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>512</v>
+      <c r="A90" s="221" t="s">
+        <v>264</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>513</v>
+      <c r="A91" s="221" t="s">
+        <v>265</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>514</v>
+      <c r="A92" s="221" t="s">
+        <v>266</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>515</v>
+      <c r="A93" s="221" t="s">
+        <v>267</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>516</v>
+      <c r="A94" s="221" t="s">
+        <v>268</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>517</v>
+      <c r="A95" s="221" t="s">
+        <v>269</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>518</v>
+      <c r="A96" s="221" t="s">
+        <v>270</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>519</v>
+      <c r="A97" s="221" t="s">
+        <v>271</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>520</v>
+      <c r="A98" s="221" t="s">
+        <v>272</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>423</v>
@@ -34928,8 +34532,8 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>521</v>
+      <c r="A99" s="221" t="s">
+        <v>273</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>423</v>
@@ -34939,8 +34543,8 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>522</v>
+      <c r="A100" s="221" t="s">
+        <v>274</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>423</v>
@@ -34950,30 +34554,30 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>523</v>
+      <c r="A101" s="221" t="s">
+        <v>275</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>524</v>
+      <c r="A102" s="221" t="s">
+        <v>276</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>525</v>
+      <c r="A103" s="221" t="s">
+        <v>277</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>423</v>
@@ -34983,8 +34587,8 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>526</v>
+      <c r="A104" s="221" t="s">
+        <v>278</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>423</v>
@@ -34994,8 +34598,8 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>527</v>
+      <c r="A105" s="221" t="s">
+        <v>279</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>423</v>
@@ -35005,52 +34609,52 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>528</v>
+      <c r="A106" s="221" t="s">
+        <v>280</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>529</v>
+      <c r="A107" s="221" t="s">
+        <v>281</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>530</v>
+      <c r="A108" s="221" t="s">
+        <v>282</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>531</v>
+      <c r="A109" s="221" t="s">
+        <v>283</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>532</v>
+      <c r="A110" s="221" t="s">
+        <v>284</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>423</v>
@@ -35060,8 +34664,8 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>533</v>
+      <c r="A111" s="221" t="s">
+        <v>285</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>423</v>
@@ -35071,118 +34675,118 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>534</v>
+      <c r="A112" s="221" t="s">
+        <v>286</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>535</v>
+      <c r="A113" s="221" t="s">
+        <v>287</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>536</v>
+      <c r="A114" s="221" t="s">
+        <v>288</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>537</v>
+      <c r="A115" s="221" t="s">
+        <v>289</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>538</v>
+      <c r="A116" s="221" t="s">
+        <v>290</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>539</v>
+      <c r="A117" s="221" t="s">
+        <v>291</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>540</v>
+      <c r="A118" s="221" t="s">
+        <v>292</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>541</v>
+      <c r="A119" s="221" t="s">
+        <v>293</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>542</v>
+      <c r="A120" s="221" t="s">
+        <v>294</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>543</v>
+      <c r="A121" s="221" t="s">
+        <v>295</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>544</v>
+      <c r="A122" s="221" t="s">
+        <v>296</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>423</v>
@@ -35192,8 +34796,8 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>545</v>
+      <c r="A123" s="221" t="s">
+        <v>297</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>423</v>
@@ -35203,41 +34807,41 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>546</v>
+      <c r="A124" s="221" t="s">
+        <v>298</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>547</v>
+      <c r="A125" s="221" t="s">
+        <v>299</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>548</v>
+      <c r="A126" s="221" t="s">
+        <v>300</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>549</v>
+      <c r="A127" s="221" t="s">
+        <v>301</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>423</v>
@@ -35247,8 +34851,8 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>550</v>
+      <c r="A128" s="221" t="s">
+        <v>302</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>423</v>
@@ -35258,8 +34862,8 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>551</v>
+      <c r="A129" s="221" t="s">
+        <v>303</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>423</v>
@@ -35269,113 +34873,124 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>552</v>
+      <c r="A130" s="221" t="s">
+        <v>304</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>553</v>
+      <c r="A131" s="221" t="s">
+        <v>305</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>554</v>
+      <c r="A132" s="221" t="s">
+        <v>306</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>555</v>
+      <c r="A133" s="221" t="s">
+        <v>307</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>556</v>
+      <c r="A134" s="221" t="s">
+        <v>308</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>557</v>
+      <c r="A135" s="221" t="s">
+        <v>309</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>423</v>
       </c>
       <c r="C135" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="221" t="s">
+        <v>426</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="221" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C137" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C136" s="0" t="n">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="221" t="s">
+        <v>311</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C138" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C137" s="0" t="n">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="221" t="s">
+        <v>312</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C139" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="C138" s="0" t="n">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="221" t="s">
+        <v>313</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C140" s="0" t="n">
         <v>19</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
